--- a/Assignment 4.1.xlsx
+++ b/Assignment 4.1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F287C-77F7-43B1-912A-A3B87A1F900C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E042F7-0F9C-4DEA-AC32-B97461A348BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{57E39A4E-0AE5-41B2-B16E-D4414AAF2C2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">Rate </t>
   </si>
@@ -47,18 +48,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>Current Case – Interest Rate - 3% and term – 120 months</t>
-  </si>
-  <si>
-    <t>• Best Case – Interest Rate - 1% and term – 120 months</t>
-  </si>
-  <si>
-    <t>• Worst Case – Interest Rate - 6% and term – 360 months</t>
-  </si>
-  <si>
-    <t>• Almost Worst Case – Interest Rate - 4.5% and term – 360 months</t>
-  </si>
-  <si>
     <t>Current Case</t>
   </si>
   <si>
@@ -69,6 +58,43 @@
   </si>
   <si>
     <t>Almost Worst Case</t>
+  </si>
+  <si>
+    <t>$B$8</t>
+  </si>
+  <si>
+    <t>$B$1</t>
+  </si>
+  <si>
+    <t>$B$2</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>Created by RAjesh on 11/5/2018
+Modified by RAjesh on 11/5/2018</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
   </si>
 </sst>
 </file>
@@ -79,7 +105,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +120,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -111,16 +193,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -435,184 +588,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB4ADD8-BC71-4EEC-8564-D24476EABB66}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="18">
+        <v>120</v>
+      </c>
+      <c r="F7" s="18">
+        <v>360</v>
+      </c>
+      <c r="G7" s="18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="F8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BF7AE-8CD7-42A3-A6A9-7C83E94CF604}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.03</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>120</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2" s="2">
         <v>200000</v>
       </c>
-      <c r="D2" s="3">
-        <f>PMT(A2/12,B2,C2)</f>
+      <c r="H2" s="3">
+        <f>PMT(E2/12,F2,G2)</f>
         <v>-1931.2148939677904</v>
       </c>
-      <c r="E2" s="3">
-        <f>D2*B2</f>
+      <c r="I2" s="3">
+        <f>H2*F2</f>
         <v>-231745.78727613486</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="3">
+        <f>PMT(E3/12,F3,G3)</f>
+        <v>-1752.0824274030558</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3*F3</f>
+        <v>-210249.89128836669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>PMT(B1/12,B2,B3)</f>
+        <v>-1931.2148939677904</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>360</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="3">
+        <f>PMT(E4/12,F4,G4)</f>
+        <v>-1199.1010503055047</v>
+      </c>
+      <c r="I4" s="3">
+        <f>H4*F4</f>
+        <v>-431676.37810998171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B4*B2</f>
+        <v>-231745.78727613486</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="I10">
-        <v>120</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="E5" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>360</v>
+      </c>
+      <c r="G5" s="2">
         <v>200000</v>
       </c>
-      <c r="K10" s="3">
-        <f>PMT(H10/12,I10,J10)</f>
-        <v>-1931.2148939677904</v>
-      </c>
-      <c r="L10" s="3">
-        <f>K10*I10</f>
-        <v>-231745.78727613486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11">
-        <v>120</v>
-      </c>
-      <c r="J11" s="2">
-        <v>200000</v>
-      </c>
-      <c r="K11" s="3">
-        <f>PMT(H11/12,I11,J11)</f>
-        <v>-1752.0824274030558</v>
-      </c>
-      <c r="L11" s="3">
-        <f>K11*I11</f>
-        <v>-210249.89128836669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="I12">
-        <v>360</v>
-      </c>
-      <c r="J12" s="2">
-        <v>200000</v>
-      </c>
-      <c r="K12" s="3">
-        <f>PMT(H12/12,I12,J12)</f>
-        <v>-1199.1010503055047</v>
-      </c>
-      <c r="L12" s="3">
-        <f>K12*I12</f>
-        <v>-431676.37810998171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I13">
-        <v>360</v>
-      </c>
-      <c r="J13" s="2">
-        <v>200000</v>
-      </c>
-      <c r="K13" s="3">
-        <f>PMT(H13/12,I13,J13)</f>
+      <c r="H5" s="3">
+        <f>PMT(E5/12,F5,G5)</f>
         <v>-1013.3706196517612</v>
       </c>
-      <c r="L13" s="3">
-        <f>K13*I13</f>
+      <c r="I5" s="3">
+        <f>H5*F5</f>
         <v>-364813.42307463405</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="0" show="0" sqref="B8">
+    <scenario name="Best Case" locked="1" count="3" user="RAjesh" comment="Created by RAjesh on 11/5/2018_x000a_Modified by RAjesh on 11/5/2018">
+      <inputCells r="B1" val="0.01" numFmtId="9"/>
+      <inputCells r="B2" val="120"/>
+      <inputCells r="B3" val="200000" numFmtId="44"/>
+    </scenario>
+    <scenario name="Worst Case" locked="1" count="3" user="RAjesh" comment="Created by RAjesh on 11/5/2018_x000a_Modified by RAjesh on 11/5/2018">
+      <inputCells r="B1" val="0.06" numFmtId="9"/>
+      <inputCells r="B2" val="360"/>
+      <inputCells r="B3" val="200000" numFmtId="44"/>
+    </scenario>
+    <scenario name="Almost Worst Case" locked="1" count="3" user="RAjesh" comment="Created by RAjesh on 11/5/2018_x000a_Modified by RAjesh on 11/5/2018">
+      <inputCells r="B1" val="0.045" numFmtId="9"/>
+      <inputCells r="B2" val="360"/>
+      <inputCells r="B3" val="200000" numFmtId="44"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment 4.1.xlsx
+++ b/Assignment 4.1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analytics Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E042F7-0F9C-4DEA-AC32-B97461A348BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7665646-D1E3-4E49-B7B4-3F3A706E6677}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{57E39A4E-0AE5-41B2-B16E-D4414AAF2C2A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{57E39A4E-0AE5-41B2-B16E-D4414AAF2C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Summary" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Scenario Summary 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Scenario Summary 3" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t xml:space="preserve">Rate </t>
   </si>
@@ -95,6 +97,12 @@
   </si>
   <si>
     <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>$H$2</t>
+  </si>
+  <si>
+    <t>$B$4</t>
   </si>
 </sst>
 </file>
@@ -105,7 +113,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +162,30 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -273,6 +305,22 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,7 +642,7 @@
   </sheetPr>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -750,11 +798,352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993AA700-0126-4651-BEEF-AECB6ACCBFA3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="18">
+        <v>120</v>
+      </c>
+      <c r="F7" s="18">
+        <v>360</v>
+      </c>
+      <c r="G7" s="18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="F8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="21">
+        <v>-1931.21489396779</v>
+      </c>
+      <c r="E10" s="21">
+        <v>-1931.21489396779</v>
+      </c>
+      <c r="F10" s="21">
+        <v>-1931.21489396779</v>
+      </c>
+      <c r="G10" s="21">
+        <v>-1931.21489396779</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F91B9C0-1BA6-4734-A56F-44E1BBE19567}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="17">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="18">
+        <v>120</v>
+      </c>
+      <c r="F7" s="18">
+        <v>360</v>
+      </c>
+      <c r="G7" s="18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="F8" s="19">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21">
+        <v>-1931.21489396779</v>
+      </c>
+      <c r="E10" s="21">
+        <v>-1752.0824274030599</v>
+      </c>
+      <c r="F10" s="21">
+        <v>-1199.1010503054999</v>
+      </c>
+      <c r="G10" s="21">
+        <v>-1013.37061965176</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BF7AE-8CD7-42A3-A6A9-7C83E94CF604}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +1295,7 @@
       </c>
     </row>
   </sheetData>
-  <scenarios current="0" show="0" sqref="B8">
+  <scenarios current="0" show="0" sqref="B4">
     <scenario name="Best Case" locked="1" count="3" user="RAjesh" comment="Created by RAjesh on 11/5/2018_x000a_Modified by RAjesh on 11/5/2018">
       <inputCells r="B1" val="0.01" numFmtId="9"/>
       <inputCells r="B2" val="120"/>
